--- a/biology/Zoologie/Conus_albuquerquei/Conus_albuquerquei.xlsx
+++ b/biology/Zoologie/Conus_albuquerquei/Conus_albuquerquei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conus albuquerquei est une espèce de mollusques gastéropodes marins de la famille des Conidae.
 Comme toutes les espèces du genre Conus, ces escargots sont prédateurs et venimeux. Ils sont capables de « piquer » les humains et doivent donc être manipulés avec précaution, voire pas du tout.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La taille de la coquille varie entre 12 mm et 17 mm.
 </t>
@@ -543,7 +557,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est présente dans l'océan Atlantique au large de l'Angola.
 </t>
@@ -576,13 +592,87 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Publication originale
-L'espèce Conus albuquerquei a été décrite pour la première fois en 1978 par le malacologiste portugais Herculano Trovão (d)[1] dans la publication intitulée « Boletim do Centro Português de Actividades Subaquáticas »[2],[3].
-Synonymes
-Conus (Lautoconus) albuquerquei Trovão, 1978 · appellation alternative
-Varioconus albuquerquei (Trovão, 1978) · non accepté
-Identifiants taxinomiques
-Chaque taxon catalogué par les bases de données biologiques et taxonomiques possède un identifiant qui permet d'établir un point de référence. Les identifiants de Conus albuquerquei dans les principales bases sont les suivants :
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Conus albuquerquei a été décrite pour la première fois en 1978 par le malacologiste portugais Herculano Trovão (d) dans la publication intitulée « Boletim do Centro Português de Actividades Subaquáticas »,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Conus_albuquerquei</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_albuquerquei</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Conus (Lautoconus) albuquerquei Trovão, 1978 · appellation alternative
+Varioconus albuquerquei (Trovão, 1978) · non accepté</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Conus_albuquerquei</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_albuquerquei</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Identifiants taxinomiques</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chaque taxon catalogué par les bases de données biologiques et taxonomiques possède un identifiant qui permet d'établir un point de référence. Les identifiants de Conus albuquerquei dans les principales bases sont les suivants :
 CoL : XWV2 - GBIF : 6510248 - IRMNG : 11839070 - 
 </t>
         </is>
